--- a/LifeCycleDevEnvironmentConsole/WorkFlow Data/O5/Template/Daily Workflow_O5_Final_Template_2020.xlsx
+++ b/LifeCycleDevEnvironmentConsole/WorkFlow Data/O5/Template/Daily Workflow_O5_Final_Template_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Middle\Desktop\WorkFlow Data\O5\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Middle\source\repos\alwaysmiddle\LifeCycleWorkflowTool\LifeCycleDevEnvironmentConsole\WorkFlow Data\O5\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191B4726-6C61-475D-AA06-532272B885DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B41B28C-0A8F-4375-A26F-49F6A3E3968F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="1125" windowWidth="21300" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Dash" sheetId="5" r:id="rId1"/>
@@ -2685,24 +2685,126 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="9" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2723,108 +2825,6 @@
     </xf>
     <xf numFmtId="1" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3386,8 +3386,8 @@
   </sheetPr>
   <dimension ref="A1:BK45"/>
   <sheetViews>
-    <sheetView showFormulas="1" showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="13" topLeftCell="AU1" activePane="topRight" state="frozen"/>
+    <sheetView showFormulas="1" showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="13" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="AW29" sqref="AW29"/>
     </sheetView>
@@ -3726,58 +3726,58 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="235">
+      <c r="N5" s="215">
         <f ca="1">TODAY()</f>
-        <v>43986</v>
-      </c>
-      <c r="O5" s="236"/>
-      <c r="P5" s="236"/>
-      <c r="Q5" s="236"/>
-      <c r="R5" s="237"/>
+        <v>44014</v>
+      </c>
+      <c r="O5" s="216"/>
+      <c r="P5" s="216"/>
+      <c r="Q5" s="216"/>
+      <c r="R5" s="217"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
-      <c r="W5" s="238" t="s">
+      <c r="W5" s="218" t="s">
         <v>1</v>
       </c>
-      <c r="X5" s="239"/>
-      <c r="Y5" s="239"/>
-      <c r="Z5" s="239"/>
-      <c r="AA5" s="239"/>
-      <c r="AB5" s="239"/>
-      <c r="AC5" s="239"/>
-      <c r="AD5" s="239"/>
-      <c r="AE5" s="239"/>
-      <c r="AF5" s="239"/>
-      <c r="AG5" s="239"/>
-      <c r="AH5" s="239"/>
-      <c r="AI5" s="239"/>
-      <c r="AJ5" s="239"/>
-      <c r="AK5" s="239"/>
-      <c r="AL5" s="239"/>
-      <c r="AM5" s="239"/>
-      <c r="AN5" s="239"/>
-      <c r="AO5" s="239"/>
-      <c r="AP5" s="239"/>
-      <c r="AQ5" s="239"/>
-      <c r="AR5" s="239"/>
-      <c r="AS5" s="239"/>
-      <c r="AT5" s="239"/>
-      <c r="AU5" s="239"/>
-      <c r="AV5" s="239"/>
-      <c r="AW5" s="239"/>
-      <c r="AX5" s="239"/>
-      <c r="AY5" s="239"/>
-      <c r="AZ5" s="239"/>
-      <c r="BA5" s="239"/>
-      <c r="BB5" s="239"/>
-      <c r="BC5" s="239"/>
-      <c r="BD5" s="239"/>
-      <c r="BE5" s="239"/>
-      <c r="BF5" s="239"/>
-      <c r="BG5" s="239"/>
-      <c r="BH5" s="240"/>
+      <c r="X5" s="219"/>
+      <c r="Y5" s="219"/>
+      <c r="Z5" s="219"/>
+      <c r="AA5" s="219"/>
+      <c r="AB5" s="219"/>
+      <c r="AC5" s="219"/>
+      <c r="AD5" s="219"/>
+      <c r="AE5" s="219"/>
+      <c r="AF5" s="219"/>
+      <c r="AG5" s="219"/>
+      <c r="AH5" s="219"/>
+      <c r="AI5" s="219"/>
+      <c r="AJ5" s="219"/>
+      <c r="AK5" s="219"/>
+      <c r="AL5" s="219"/>
+      <c r="AM5" s="219"/>
+      <c r="AN5" s="219"/>
+      <c r="AO5" s="219"/>
+      <c r="AP5" s="219"/>
+      <c r="AQ5" s="219"/>
+      <c r="AR5" s="219"/>
+      <c r="AS5" s="219"/>
+      <c r="AT5" s="219"/>
+      <c r="AU5" s="219"/>
+      <c r="AV5" s="219"/>
+      <c r="AW5" s="219"/>
+      <c r="AX5" s="219"/>
+      <c r="AY5" s="219"/>
+      <c r="AZ5" s="219"/>
+      <c r="BA5" s="219"/>
+      <c r="BB5" s="219"/>
+      <c r="BC5" s="219"/>
+      <c r="BD5" s="219"/>
+      <c r="BE5" s="219"/>
+      <c r="BF5" s="219"/>
+      <c r="BG5" s="219"/>
+      <c r="BH5" s="220"/>
       <c r="BI5" s="1"/>
       <c r="BJ5" s="6"/>
       <c r="BK5" s="6"/>
@@ -3926,17 +3926,17 @@
       <c r="K8" s="13"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="241" t="s">
+      <c r="N8" s="221" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="242"/>
-      <c r="P8" s="242"/>
-      <c r="Q8" s="242"/>
-      <c r="R8" s="242"/>
-      <c r="S8" s="242"/>
-      <c r="T8" s="242"/>
-      <c r="U8" s="242"/>
-      <c r="V8" s="243"/>
+      <c r="O8" s="222"/>
+      <c r="P8" s="222"/>
+      <c r="Q8" s="222"/>
+      <c r="R8" s="222"/>
+      <c r="S8" s="222"/>
+      <c r="T8" s="222"/>
+      <c r="U8" s="222"/>
+      <c r="V8" s="223"/>
       <c r="W8" s="14"/>
       <c r="X8" s="10"/>
       <c r="Y8" s="15"/>
@@ -3984,101 +3984,101 @@
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="244" t="s">
+      <c r="E9" s="224" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="245"/>
-      <c r="G9" s="246"/>
-      <c r="H9" s="244" t="s">
+      <c r="F9" s="225"/>
+      <c r="G9" s="226"/>
+      <c r="H9" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="245"/>
-      <c r="J9" s="246"/>
-      <c r="K9" s="244" t="s">
+      <c r="I9" s="225"/>
+      <c r="J9" s="226"/>
+      <c r="K9" s="224" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="245"/>
-      <c r="M9" s="245"/>
-      <c r="N9" s="247" t="s">
+      <c r="L9" s="225"/>
+      <c r="M9" s="225"/>
+      <c r="N9" s="227" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="248"/>
-      <c r="P9" s="248"/>
-      <c r="Q9" s="248"/>
-      <c r="R9" s="249"/>
-      <c r="S9" s="250" t="s">
+      <c r="O9" s="228"/>
+      <c r="P9" s="228"/>
+      <c r="Q9" s="228"/>
+      <c r="R9" s="229"/>
+      <c r="S9" s="230" t="s">
         <v>7</v>
       </c>
-      <c r="T9" s="251"/>
-      <c r="U9" s="250" t="s">
+      <c r="T9" s="231"/>
+      <c r="U9" s="230" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="251"/>
-      <c r="W9" s="252" t="s">
+      <c r="V9" s="231"/>
+      <c r="W9" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="X9" s="253"/>
-      <c r="Y9" s="254"/>
-      <c r="Z9" s="257" t="s">
+      <c r="X9" s="233"/>
+      <c r="Y9" s="234"/>
+      <c r="Z9" s="237" t="s">
         <v>10</v>
       </c>
-      <c r="AA9" s="258"/>
-      <c r="AB9" s="259"/>
-      <c r="AC9" s="260" t="s">
+      <c r="AA9" s="238"/>
+      <c r="AB9" s="239"/>
+      <c r="AC9" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="AD9" s="261"/>
-      <c r="AE9" s="261"/>
-      <c r="AF9" s="260" t="s">
+      <c r="AD9" s="241"/>
+      <c r="AE9" s="241"/>
+      <c r="AF9" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="AG9" s="261"/>
-      <c r="AH9" s="261"/>
-      <c r="AI9" s="260" t="s">
+      <c r="AG9" s="241"/>
+      <c r="AH9" s="241"/>
+      <c r="AI9" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="AJ9" s="261"/>
-      <c r="AK9" s="261"/>
-      <c r="AL9" s="260" t="s">
+      <c r="AJ9" s="241"/>
+      <c r="AK9" s="241"/>
+      <c r="AL9" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="AM9" s="261"/>
-      <c r="AN9" s="261"/>
-      <c r="AO9" s="228" t="s">
+      <c r="AM9" s="241"/>
+      <c r="AN9" s="241"/>
+      <c r="AO9" s="244" t="s">
         <v>12</v>
       </c>
-      <c r="AP9" s="229"/>
-      <c r="AQ9" s="229"/>
-      <c r="AR9" s="230" t="s">
+      <c r="AP9" s="245"/>
+      <c r="AQ9" s="245"/>
+      <c r="AR9" s="246" t="s">
         <v>13</v>
       </c>
-      <c r="AS9" s="231"/>
-      <c r="AT9" s="231"/>
-      <c r="AU9" s="232" t="s">
+      <c r="AS9" s="247"/>
+      <c r="AT9" s="247"/>
+      <c r="AU9" s="248" t="s">
         <v>14</v>
       </c>
-      <c r="AV9" s="233"/>
-      <c r="AW9" s="233"/>
-      <c r="AX9" s="219" t="s">
+      <c r="AV9" s="249"/>
+      <c r="AW9" s="249"/>
+      <c r="AX9" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="AY9" s="220"/>
-      <c r="AZ9" s="220"/>
-      <c r="BA9" s="234" t="s">
+      <c r="AY9" s="251"/>
+      <c r="AZ9" s="251"/>
+      <c r="BA9" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="BB9" s="220"/>
-      <c r="BC9" s="220"/>
-      <c r="BD9" s="219" t="s">
+      <c r="BB9" s="251"/>
+      <c r="BC9" s="251"/>
+      <c r="BD9" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="BE9" s="220"/>
-      <c r="BF9" s="220"/>
-      <c r="BG9" s="255" t="s">
+      <c r="BE9" s="251"/>
+      <c r="BF9" s="251"/>
+      <c r="BG9" s="235" t="s">
         <v>15</v>
       </c>
-      <c r="BH9" s="256"/>
-      <c r="BI9" s="256"/>
+      <c r="BH9" s="236"/>
+      <c r="BI9" s="236"/>
       <c r="BJ9" s="6"/>
       <c r="BK9" s="6"/>
     </row>
@@ -4298,7 +4298,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="221" t="s">
+      <c r="D12" s="255" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="46" t="s">
@@ -4325,111 +4325,111 @@
       <c r="N12" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="222" t="s">
+      <c r="O12" s="256" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="223"/>
-      <c r="Q12" s="223"/>
-      <c r="R12" s="224"/>
-      <c r="S12" s="225" t="s">
+      <c r="P12" s="257"/>
+      <c r="Q12" s="257"/>
+      <c r="R12" s="258"/>
+      <c r="S12" s="259" t="s">
         <v>29</v>
       </c>
-      <c r="T12" s="226"/>
-      <c r="U12" s="225" t="s">
+      <c r="T12" s="260"/>
+      <c r="U12" s="259" t="s">
         <v>29</v>
       </c>
-      <c r="V12" s="226"/>
+      <c r="V12" s="260"/>
       <c r="W12" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="X12" s="217" t="s">
+      <c r="X12" s="253" t="s">
         <v>29</v>
       </c>
-      <c r="Y12" s="227"/>
+      <c r="Y12" s="261"/>
       <c r="Z12" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="AA12" s="217" t="s">
+      <c r="AA12" s="253" t="s">
         <v>29</v>
       </c>
-      <c r="AB12" s="227"/>
+      <c r="AB12" s="261"/>
       <c r="AC12" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="AD12" s="217" t="s">
+      <c r="AD12" s="253" t="s">
         <v>29</v>
       </c>
-      <c r="AE12" s="216"/>
+      <c r="AE12" s="243"/>
       <c r="AF12" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="AG12" s="217" t="s">
+      <c r="AG12" s="253" t="s">
         <v>29</v>
       </c>
-      <c r="AH12" s="216"/>
+      <c r="AH12" s="243"/>
       <c r="AI12" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="AJ12" s="217" t="s">
+      <c r="AJ12" s="253" t="s">
         <v>29</v>
       </c>
-      <c r="AK12" s="216"/>
+      <c r="AK12" s="243"/>
       <c r="AL12" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="AM12" s="217" t="s">
+      <c r="AM12" s="253" t="s">
         <v>29</v>
       </c>
-      <c r="AN12" s="218"/>
+      <c r="AN12" s="254"/>
       <c r="AO12" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="AP12" s="217" t="s">
+      <c r="AP12" s="253" t="s">
         <v>29</v>
       </c>
-      <c r="AQ12" s="218"/>
+      <c r="AQ12" s="254"/>
       <c r="AR12" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="AS12" s="217" t="s">
+      <c r="AS12" s="253" t="s">
         <v>29</v>
       </c>
-      <c r="AT12" s="218"/>
+      <c r="AT12" s="254"/>
       <c r="AU12" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="AV12" s="217" t="s">
+      <c r="AV12" s="253" t="s">
         <v>29</v>
       </c>
-      <c r="AW12" s="218"/>
+      <c r="AW12" s="254"/>
       <c r="AX12" s="211" t="s">
         <v>28</v>
       </c>
-      <c r="AY12" s="215" t="s">
+      <c r="AY12" s="242" t="s">
         <v>29</v>
       </c>
-      <c r="AZ12" s="216"/>
+      <c r="AZ12" s="243"/>
       <c r="BA12" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="BB12" s="215" t="s">
+      <c r="BB12" s="242" t="s">
         <v>29</v>
       </c>
-      <c r="BC12" s="216"/>
+      <c r="BC12" s="243"/>
       <c r="BD12" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="BE12" s="215" t="s">
+      <c r="BE12" s="242" t="s">
         <v>29</v>
       </c>
-      <c r="BF12" s="216"/>
+      <c r="BF12" s="243"/>
       <c r="BG12" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="BH12" s="217" t="s">
+      <c r="BH12" s="253" t="s">
         <v>29</v>
       </c>
-      <c r="BI12" s="218"/>
+      <c r="BI12" s="254"/>
       <c r="BJ12" s="6"/>
       <c r="BK12" s="6"/>
     </row>
@@ -4441,7 +4441,7 @@
       <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="221"/>
+      <c r="D13" s="255"/>
       <c r="E13" s="50" t="s">
         <v>32</v>
       </c>
@@ -6677,6 +6677,29 @@
     <row r="45" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="BE12:BF12"/>
+    <mergeCell ref="BH12:BI12"/>
+    <mergeCell ref="BD9:BF9"/>
+    <mergeCell ref="AS12:AT12"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AP12:AQ12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BB12:BC12"/>
+    <mergeCell ref="AO9:AQ9"/>
+    <mergeCell ref="AR9:AT9"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="BA9:BC9"/>
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="W5:BH5"/>
     <mergeCell ref="N8:V8"/>
@@ -6693,29 +6716,6 @@
     <mergeCell ref="AF9:AH9"/>
     <mergeCell ref="AI9:AK9"/>
     <mergeCell ref="AL9:AN9"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BB12:BC12"/>
-    <mergeCell ref="AO9:AQ9"/>
-    <mergeCell ref="AR9:AT9"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="BA9:BC9"/>
-    <mergeCell ref="BE12:BF12"/>
-    <mergeCell ref="BH12:BI12"/>
-    <mergeCell ref="BD9:BF9"/>
-    <mergeCell ref="AS12:AT12"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AP12:AQ12"/>
-    <mergeCell ref="AV12:AW12"/>
   </mergeCells>
   <conditionalFormatting sqref="V14:V25">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
@@ -7509,7 +7509,7 @@
   </sheetPr>
   <dimension ref="A1:BN2"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="K45" sqref="K45:K46"/>
@@ -7880,7 +7880,7 @@
   </sheetPr>
   <dimension ref="A1:AS4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/LifeCycleDevEnvironmentConsole/WorkFlow Data/O5/Template/Daily Workflow_O5_Final_Template_2020.xlsx
+++ b/LifeCycleDevEnvironmentConsole/WorkFlow Data/O5/Template/Daily Workflow_O5_Final_Template_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Middle\source\repos\alwaysmiddle\LifeCycleWorkflowTool\LifeCycleDevEnvironmentConsole\WorkFlow Data\O5\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B41B28C-0A8F-4375-A26F-49F6A3E3968F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2F83DF-41BA-4861-81A1-98E6037E98DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2685,6 +2685,66 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="15" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="15" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2765,66 +2825,6 @@
     </xf>
     <xf numFmtId="1" fontId="9" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="15" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="15" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3726,58 +3726,58 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="215">
+      <c r="N5" s="235">
         <f ca="1">TODAY()</f>
         <v>44014</v>
       </c>
-      <c r="O5" s="216"/>
-      <c r="P5" s="216"/>
-      <c r="Q5" s="216"/>
-      <c r="R5" s="217"/>
+      <c r="O5" s="236"/>
+      <c r="P5" s="236"/>
+      <c r="Q5" s="236"/>
+      <c r="R5" s="237"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
-      <c r="W5" s="218" t="s">
+      <c r="W5" s="238" t="s">
         <v>1</v>
       </c>
-      <c r="X5" s="219"/>
-      <c r="Y5" s="219"/>
-      <c r="Z5" s="219"/>
-      <c r="AA5" s="219"/>
-      <c r="AB5" s="219"/>
-      <c r="AC5" s="219"/>
-      <c r="AD5" s="219"/>
-      <c r="AE5" s="219"/>
-      <c r="AF5" s="219"/>
-      <c r="AG5" s="219"/>
-      <c r="AH5" s="219"/>
-      <c r="AI5" s="219"/>
-      <c r="AJ5" s="219"/>
-      <c r="AK5" s="219"/>
-      <c r="AL5" s="219"/>
-      <c r="AM5" s="219"/>
-      <c r="AN5" s="219"/>
-      <c r="AO5" s="219"/>
-      <c r="AP5" s="219"/>
-      <c r="AQ5" s="219"/>
-      <c r="AR5" s="219"/>
-      <c r="AS5" s="219"/>
-      <c r="AT5" s="219"/>
-      <c r="AU5" s="219"/>
-      <c r="AV5" s="219"/>
-      <c r="AW5" s="219"/>
-      <c r="AX5" s="219"/>
-      <c r="AY5" s="219"/>
-      <c r="AZ5" s="219"/>
-      <c r="BA5" s="219"/>
-      <c r="BB5" s="219"/>
-      <c r="BC5" s="219"/>
-      <c r="BD5" s="219"/>
-      <c r="BE5" s="219"/>
-      <c r="BF5" s="219"/>
-      <c r="BG5" s="219"/>
-      <c r="BH5" s="220"/>
+      <c r="X5" s="239"/>
+      <c r="Y5" s="239"/>
+      <c r="Z5" s="239"/>
+      <c r="AA5" s="239"/>
+      <c r="AB5" s="239"/>
+      <c r="AC5" s="239"/>
+      <c r="AD5" s="239"/>
+      <c r="AE5" s="239"/>
+      <c r="AF5" s="239"/>
+      <c r="AG5" s="239"/>
+      <c r="AH5" s="239"/>
+      <c r="AI5" s="239"/>
+      <c r="AJ5" s="239"/>
+      <c r="AK5" s="239"/>
+      <c r="AL5" s="239"/>
+      <c r="AM5" s="239"/>
+      <c r="AN5" s="239"/>
+      <c r="AO5" s="239"/>
+      <c r="AP5" s="239"/>
+      <c r="AQ5" s="239"/>
+      <c r="AR5" s="239"/>
+      <c r="AS5" s="239"/>
+      <c r="AT5" s="239"/>
+      <c r="AU5" s="239"/>
+      <c r="AV5" s="239"/>
+      <c r="AW5" s="239"/>
+      <c r="AX5" s="239"/>
+      <c r="AY5" s="239"/>
+      <c r="AZ5" s="239"/>
+      <c r="BA5" s="239"/>
+      <c r="BB5" s="239"/>
+      <c r="BC5" s="239"/>
+      <c r="BD5" s="239"/>
+      <c r="BE5" s="239"/>
+      <c r="BF5" s="239"/>
+      <c r="BG5" s="239"/>
+      <c r="BH5" s="240"/>
       <c r="BI5" s="1"/>
       <c r="BJ5" s="6"/>
       <c r="BK5" s="6"/>
@@ -3926,17 +3926,17 @@
       <c r="K8" s="13"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="221" t="s">
+      <c r="N8" s="241" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="222"/>
-      <c r="P8" s="222"/>
-      <c r="Q8" s="222"/>
-      <c r="R8" s="222"/>
-      <c r="S8" s="222"/>
-      <c r="T8" s="222"/>
-      <c r="U8" s="222"/>
-      <c r="V8" s="223"/>
+      <c r="O8" s="242"/>
+      <c r="P8" s="242"/>
+      <c r="Q8" s="242"/>
+      <c r="R8" s="242"/>
+      <c r="S8" s="242"/>
+      <c r="T8" s="242"/>
+      <c r="U8" s="242"/>
+      <c r="V8" s="243"/>
       <c r="W8" s="14"/>
       <c r="X8" s="10"/>
       <c r="Y8" s="15"/>
@@ -3984,101 +3984,101 @@
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="224" t="s">
+      <c r="E9" s="244" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="225"/>
-      <c r="G9" s="226"/>
-      <c r="H9" s="224" t="s">
+      <c r="F9" s="245"/>
+      <c r="G9" s="246"/>
+      <c r="H9" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="225"/>
-      <c r="J9" s="226"/>
-      <c r="K9" s="224" t="s">
+      <c r="I9" s="245"/>
+      <c r="J9" s="246"/>
+      <c r="K9" s="244" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="225"/>
-      <c r="M9" s="225"/>
-      <c r="N9" s="227" t="s">
+      <c r="L9" s="245"/>
+      <c r="M9" s="245"/>
+      <c r="N9" s="247" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="228"/>
-      <c r="P9" s="228"/>
-      <c r="Q9" s="228"/>
-      <c r="R9" s="229"/>
-      <c r="S9" s="230" t="s">
+      <c r="O9" s="248"/>
+      <c r="P9" s="248"/>
+      <c r="Q9" s="248"/>
+      <c r="R9" s="249"/>
+      <c r="S9" s="250" t="s">
         <v>7</v>
       </c>
-      <c r="T9" s="231"/>
-      <c r="U9" s="230" t="s">
+      <c r="T9" s="251"/>
+      <c r="U9" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="231"/>
-      <c r="W9" s="232" t="s">
+      <c r="V9" s="251"/>
+      <c r="W9" s="252" t="s">
         <v>9</v>
       </c>
-      <c r="X9" s="233"/>
-      <c r="Y9" s="234"/>
-      <c r="Z9" s="237" t="s">
+      <c r="X9" s="253"/>
+      <c r="Y9" s="254"/>
+      <c r="Z9" s="257" t="s">
         <v>10</v>
       </c>
-      <c r="AA9" s="238"/>
-      <c r="AB9" s="239"/>
-      <c r="AC9" s="240" t="s">
+      <c r="AA9" s="258"/>
+      <c r="AB9" s="259"/>
+      <c r="AC9" s="260" t="s">
         <v>11</v>
       </c>
-      <c r="AD9" s="241"/>
-      <c r="AE9" s="241"/>
-      <c r="AF9" s="240" t="s">
+      <c r="AD9" s="261"/>
+      <c r="AE9" s="261"/>
+      <c r="AF9" s="260" t="s">
         <v>11</v>
       </c>
-      <c r="AG9" s="241"/>
-      <c r="AH9" s="241"/>
-      <c r="AI9" s="240" t="s">
+      <c r="AG9" s="261"/>
+      <c r="AH9" s="261"/>
+      <c r="AI9" s="260" t="s">
         <v>11</v>
       </c>
-      <c r="AJ9" s="241"/>
-      <c r="AK9" s="241"/>
-      <c r="AL9" s="240" t="s">
+      <c r="AJ9" s="261"/>
+      <c r="AK9" s="261"/>
+      <c r="AL9" s="260" t="s">
         <v>11</v>
       </c>
-      <c r="AM9" s="241"/>
-      <c r="AN9" s="241"/>
-      <c r="AO9" s="244" t="s">
+      <c r="AM9" s="261"/>
+      <c r="AN9" s="261"/>
+      <c r="AO9" s="228" t="s">
         <v>12</v>
       </c>
-      <c r="AP9" s="245"/>
-      <c r="AQ9" s="245"/>
-      <c r="AR9" s="246" t="s">
+      <c r="AP9" s="229"/>
+      <c r="AQ9" s="229"/>
+      <c r="AR9" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="AS9" s="247"/>
-      <c r="AT9" s="247"/>
-      <c r="AU9" s="248" t="s">
+      <c r="AS9" s="231"/>
+      <c r="AT9" s="231"/>
+      <c r="AU9" s="232" t="s">
         <v>14</v>
       </c>
-      <c r="AV9" s="249"/>
-      <c r="AW9" s="249"/>
-      <c r="AX9" s="250" t="s">
+      <c r="AV9" s="233"/>
+      <c r="AW9" s="233"/>
+      <c r="AX9" s="219" t="s">
         <v>15</v>
       </c>
-      <c r="AY9" s="251"/>
-      <c r="AZ9" s="251"/>
-      <c r="BA9" s="252" t="s">
+      <c r="AY9" s="220"/>
+      <c r="AZ9" s="220"/>
+      <c r="BA9" s="234" t="s">
         <v>15</v>
       </c>
-      <c r="BB9" s="251"/>
-      <c r="BC9" s="251"/>
-      <c r="BD9" s="250" t="s">
+      <c r="BB9" s="220"/>
+      <c r="BC9" s="220"/>
+      <c r="BD9" s="219" t="s">
         <v>15</v>
       </c>
-      <c r="BE9" s="251"/>
-      <c r="BF9" s="251"/>
-      <c r="BG9" s="235" t="s">
+      <c r="BE9" s="220"/>
+      <c r="BF9" s="220"/>
+      <c r="BG9" s="255" t="s">
         <v>15</v>
       </c>
-      <c r="BH9" s="236"/>
-      <c r="BI9" s="236"/>
+      <c r="BH9" s="256"/>
+      <c r="BI9" s="256"/>
       <c r="BJ9" s="6"/>
       <c r="BK9" s="6"/>
     </row>
@@ -4298,7 +4298,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="255" t="s">
+      <c r="D12" s="221" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="46" t="s">
@@ -4325,111 +4325,111 @@
       <c r="N12" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="256" t="s">
+      <c r="O12" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="257"/>
-      <c r="Q12" s="257"/>
-      <c r="R12" s="258"/>
-      <c r="S12" s="259" t="s">
+      <c r="P12" s="223"/>
+      <c r="Q12" s="223"/>
+      <c r="R12" s="224"/>
+      <c r="S12" s="225" t="s">
         <v>29</v>
       </c>
-      <c r="T12" s="260"/>
-      <c r="U12" s="259" t="s">
+      <c r="T12" s="226"/>
+      <c r="U12" s="225" t="s">
         <v>29</v>
       </c>
-      <c r="V12" s="260"/>
+      <c r="V12" s="226"/>
       <c r="W12" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="X12" s="253" t="s">
+      <c r="X12" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="Y12" s="261"/>
+      <c r="Y12" s="227"/>
       <c r="Z12" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="AA12" s="253" t="s">
+      <c r="AA12" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="AB12" s="261"/>
+      <c r="AB12" s="227"/>
       <c r="AC12" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="AD12" s="253" t="s">
+      <c r="AD12" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="AE12" s="243"/>
+      <c r="AE12" s="216"/>
       <c r="AF12" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="AG12" s="253" t="s">
+      <c r="AG12" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="AH12" s="243"/>
+      <c r="AH12" s="216"/>
       <c r="AI12" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="AJ12" s="253" t="s">
+      <c r="AJ12" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="AK12" s="243"/>
+      <c r="AK12" s="216"/>
       <c r="AL12" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="AM12" s="253" t="s">
+      <c r="AM12" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="AN12" s="254"/>
+      <c r="AN12" s="218"/>
       <c r="AO12" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="AP12" s="253" t="s">
+      <c r="AP12" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="AQ12" s="254"/>
+      <c r="AQ12" s="218"/>
       <c r="AR12" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="AS12" s="253" t="s">
+      <c r="AS12" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="AT12" s="254"/>
+      <c r="AT12" s="218"/>
       <c r="AU12" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="AV12" s="253" t="s">
+      <c r="AV12" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="AW12" s="254"/>
+      <c r="AW12" s="218"/>
       <c r="AX12" s="211" t="s">
         <v>28</v>
       </c>
-      <c r="AY12" s="242" t="s">
+      <c r="AY12" s="215" t="s">
         <v>29</v>
       </c>
-      <c r="AZ12" s="243"/>
+      <c r="AZ12" s="216"/>
       <c r="BA12" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="BB12" s="242" t="s">
+      <c r="BB12" s="215" t="s">
         <v>29</v>
       </c>
-      <c r="BC12" s="243"/>
+      <c r="BC12" s="216"/>
       <c r="BD12" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="BE12" s="242" t="s">
+      <c r="BE12" s="215" t="s">
         <v>29</v>
       </c>
-      <c r="BF12" s="243"/>
+      <c r="BF12" s="216"/>
       <c r="BG12" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="BH12" s="253" t="s">
+      <c r="BH12" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="BI12" s="254"/>
+      <c r="BI12" s="218"/>
       <c r="BJ12" s="6"/>
       <c r="BK12" s="6"/>
     </row>
@@ -4441,7 +4441,7 @@
       <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="255"/>
+      <c r="D13" s="221"/>
       <c r="E13" s="50" t="s">
         <v>32</v>
       </c>
@@ -6677,6 +6677,29 @@
     <row r="45" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="W5:BH5"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="BG9:BI9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="AI9:AK9"/>
+    <mergeCell ref="AL9:AN9"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BB12:BC12"/>
+    <mergeCell ref="AO9:AQ9"/>
+    <mergeCell ref="AR9:AT9"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="BA9:BC9"/>
     <mergeCell ref="BE12:BF12"/>
     <mergeCell ref="BH12:BI12"/>
     <mergeCell ref="BD9:BF9"/>
@@ -6693,29 +6716,6 @@
     <mergeCell ref="AM12:AN12"/>
     <mergeCell ref="AP12:AQ12"/>
     <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BB12:BC12"/>
-    <mergeCell ref="AO9:AQ9"/>
-    <mergeCell ref="AR9:AT9"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="BA9:BC9"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="W5:BH5"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="BG9:BI9"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="AI9:AK9"/>
-    <mergeCell ref="AL9:AN9"/>
   </mergeCells>
   <conditionalFormatting sqref="V14:V25">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
@@ -7512,7 +7512,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="K45" sqref="K45:K46"/>
+      <selection pane="bottomLeft" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
